--- a/meta/10-1-1.xlsx
+++ b/meta/10-1-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -100,22 +100,7 @@
     <t>10.1. К 2030 году постепенно достичь и поддерживать рост доходов, наименее обеспеченных 40 процентов населения на уровне, превышающем средний по стране</t>
   </si>
   <si>
-    <t>10.1.1. Темпы роста расходов домохозяйств или доходов на душу населения среди наименее обеспеченных 40 процентов населения и среди населения в целом</t>
-  </si>
-  <si>
-    <t>Национальный статистический комитет КР (Отдел статистики домашних хозяйств)</t>
-  </si>
-  <si>
     <t>Калымбетова Ы.И.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y.Kalymbetova@stat.kg </t>
-  </si>
-  <si>
-    <t>(312) 66 41 64</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>Темпы роста совокупного уровня благосостояния нижних 40% рассчитываются как среднегодовые темпы роста реального потребления на душу населения или доходов нижних 40% распределения доходов в стране на основе обследований домашних хозяйств в течение примерно 5-летнего периода. Средние национальные темпы роста совокупного благосостояния рассчитываются как среднегодовые темпы роста реального потребления на душу населения или доходов всего населения в стране на основе обследований домашних хозяйств за примерно пятилетний период.</t>
@@ -148,18 +133,41 @@
   <si>
     <t>Национальная платформа отчетности ЦУР: https://sustainabledevelopment-kyrgyzstan.github.io 
 Данные публикуются в статистических сборниках "Занятость и безработица", "Женщины и мужчины Кыргызской Республики", "Кыргызстан в цифрах"</t>
+  </si>
+  <si>
+    <t>10.1.1 Темпы роста расходов домохозяйств или доходов на душу населения среди наименее обеспеченных 40 процентов населения и среди населения в целом</t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет КР (Управление статистики домашних хозяйств)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+  </si>
+  <si>
+    <t>(312) 32-46-55</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,26 +234,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -556,7 +572,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -606,8 +622,8 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -615,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
+      <c r="B8" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -653,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -661,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -669,7 +685,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -683,7 +699,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -691,7 +707,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -705,7 +721,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -713,7 +729,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -739,7 +755,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -747,7 +763,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -755,7 +771,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
